--- a/Modulo5/src/out/info_estados/New Jersey.xlsx
+++ b/Modulo5/src/out/info_estados/New Jersey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="47">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>N</t>
@@ -584,14 +590,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>6802</v>
       </c>
       <c r="M2">
         <v>34001</v>
@@ -628,14 +634,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>11019</v>
       </c>
       <c r="M3">
         <v>34001</v>
@@ -672,14 +678,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>11922</v>
       </c>
       <c r="M4">
         <v>34001</v>
@@ -716,14 +722,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1890</v>
       </c>
       <c r="M5">
         <v>34001</v>
@@ -760,14 +766,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1048</v>
       </c>
       <c r="M6">
         <v>34001</v>
@@ -804,14 +810,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>34138</v>
       </c>
       <c r="M7">
         <v>34003</v>
@@ -848,14 +854,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>55265</v>
       </c>
       <c r="M8">
         <v>34003</v>
@@ -892,14 +898,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>34396</v>
       </c>
       <c r="M9">
         <v>34003</v>
@@ -936,14 +942,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5141</v>
       </c>
       <c r="M10">
         <v>34003</v>
@@ -980,14 +986,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2387</v>
       </c>
       <c r="M11">
         <v>34003</v>
@@ -1024,14 +1030,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>20088</v>
       </c>
       <c r="M12">
         <v>34005</v>
@@ -1068,14 +1074,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>32713</v>
       </c>
       <c r="M13">
         <v>34005</v>
@@ -1112,14 +1118,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>20603</v>
       </c>
       <c r="M14">
         <v>34005</v>
@@ -1156,14 +1162,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>4439</v>
       </c>
       <c r="M15">
         <v>34005</v>
@@ -1200,14 +1206,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1951</v>
       </c>
       <c r="M16">
         <v>34005</v>
@@ -1244,14 +1250,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>26384</v>
       </c>
       <c r="M17">
         <v>34007</v>
@@ -1288,14 +1294,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>43721</v>
       </c>
       <c r="M18">
         <v>34007</v>
@@ -1332,14 +1338,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>13330</v>
       </c>
       <c r="M19">
         <v>34007</v>
@@ -1376,14 +1382,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>2665</v>
       </c>
       <c r="M20">
         <v>34007</v>
@@ -1420,14 +1426,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1736</v>
       </c>
       <c r="M21">
         <v>34007</v>
@@ -1464,14 +1470,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3250</v>
       </c>
       <c r="M22">
         <v>34009</v>
@@ -1508,14 +1514,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3965</v>
       </c>
       <c r="M23">
         <v>34009</v>
@@ -1552,14 +1558,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>8339</v>
       </c>
       <c r="M24">
         <v>34009</v>
@@ -1596,14 +1602,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>1452</v>
       </c>
       <c r="M25">
         <v>34009</v>
@@ -1640,14 +1646,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>730</v>
       </c>
       <c r="M26">
         <v>34009</v>
@@ -1684,14 +1690,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3830</v>
       </c>
       <c r="M27">
         <v>34011</v>
@@ -1728,14 +1734,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6876</v>
       </c>
       <c r="M28">
         <v>34011</v>
@@ -1772,14 +1778,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>4950</v>
       </c>
       <c r="M29">
         <v>34011</v>
@@ -1816,14 +1822,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>592</v>
       </c>
       <c r="M30">
         <v>34011</v>
@@ -1860,14 +1866,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="M31">
         <v>34011</v>
@@ -1904,14 +1910,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>27450</v>
       </c>
       <c r="M32">
         <v>34013</v>
@@ -1948,14 +1954,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>75072</v>
       </c>
       <c r="M33">
         <v>34013</v>
@@ -1992,14 +1998,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>11601</v>
       </c>
       <c r="M34">
         <v>34013</v>
@@ -2036,14 +2042,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>2200</v>
       </c>
       <c r="M35">
         <v>34013</v>
@@ -2080,14 +2086,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>848</v>
       </c>
       <c r="M36">
         <v>34013</v>
@@ -2124,14 +2130,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>14012</v>
       </c>
       <c r="M37">
         <v>34015</v>
@@ -2168,14 +2174,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>17955</v>
       </c>
       <c r="M38">
         <v>34015</v>
@@ -2212,14 +2218,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>11858</v>
       </c>
       <c r="M39">
         <v>34015</v>
@@ -2256,14 +2262,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1789</v>
       </c>
       <c r="M40">
         <v>34015</v>
@@ -2300,14 +2306,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="M41">
         <v>34015</v>
@@ -2344,14 +2350,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>25113</v>
       </c>
       <c r="M42">
         <v>34017</v>
@@ -2388,14 +2394,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>44</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>49799</v>
       </c>
       <c r="M43">
         <v>34017</v>
@@ -2432,14 +2438,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>6507</v>
       </c>
       <c r="M44">
         <v>34017</v>
@@ -2476,14 +2482,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>906</v>
       </c>
       <c r="M45">
         <v>34017</v>
@@ -2520,14 +2526,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>766</v>
       </c>
       <c r="M46">
         <v>34017</v>
@@ -2564,14 +2570,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>5048</v>
       </c>
       <c r="M47">
         <v>34019</v>
@@ -2608,14 +2614,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>44</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>5374</v>
       </c>
       <c r="M48">
         <v>34019</v>
@@ -2652,14 +2658,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>12451</v>
       </c>
       <c r="M49">
         <v>34019</v>
@@ -2696,14 +2702,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3052</v>
       </c>
       <c r="M50">
         <v>34019</v>
@@ -2740,14 +2746,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>899</v>
       </c>
       <c r="M51">
         <v>34019</v>
@@ -2784,14 +2790,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>15099</v>
       </c>
       <c r="M52">
         <v>34021</v>
@@ -2828,14 +2834,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>29506</v>
       </c>
       <c r="M53">
         <v>34021</v>
@@ -2872,14 +2878,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>8670</v>
       </c>
       <c r="M54">
         <v>34021</v>
@@ -2916,14 +2922,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>2289</v>
       </c>
       <c r="M55">
         <v>34021</v>
@@ -2960,14 +2966,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>903</v>
       </c>
       <c r="M56">
         <v>34021</v>
@@ -3004,14 +3010,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>44</v>
       </c>
       <c r="K57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>30499</v>
       </c>
       <c r="M57">
         <v>34023</v>
@@ -3048,14 +3054,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>47979</v>
       </c>
       <c r="M58">
         <v>34023</v>
@@ -3092,14 +3098,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>20996</v>
       </c>
       <c r="M59">
         <v>34023</v>
@@ -3136,14 +3142,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>2572</v>
       </c>
       <c r="M60">
         <v>34023</v>
@@ -3180,14 +3186,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>1344</v>
       </c>
       <c r="M61">
         <v>34023</v>
@@ -3224,14 +3230,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>22186</v>
       </c>
       <c r="M62">
         <v>34025</v>
@@ -3268,14 +3274,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>44</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>30836</v>
       </c>
       <c r="M63">
         <v>34025</v>
@@ -3312,14 +3318,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>35210</v>
       </c>
       <c r="M64">
         <v>34025</v>
@@ -3356,14 +3362,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>4476</v>
       </c>
       <c r="M65">
         <v>34025</v>
@@ -3400,14 +3406,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>45</v>
       </c>
       <c r="K66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>1986</v>
       </c>
       <c r="M66">
         <v>34025</v>
@@ -3444,14 +3450,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>44</v>
       </c>
       <c r="K67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>17260</v>
       </c>
       <c r="M67">
         <v>34027</v>
@@ -3488,14 +3494,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>44</v>
       </c>
       <c r="K68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>24227</v>
       </c>
       <c r="M68">
         <v>34027</v>
@@ -3532,14 +3538,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>38253</v>
       </c>
       <c r="M69">
         <v>34027</v>
@@ -3576,14 +3582,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>9297</v>
       </c>
       <c r="M70">
         <v>34027</v>
@@ -3620,14 +3626,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3134</v>
       </c>
       <c r="M71">
         <v>34027</v>
@@ -3664,14 +3670,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>44</v>
       </c>
       <c r="K72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>16306</v>
       </c>
       <c r="M72">
         <v>34029</v>
@@ -3708,14 +3714,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>44</v>
       </c>
       <c r="K73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>19573</v>
       </c>
       <c r="M73">
         <v>34029</v>
@@ -3752,14 +3758,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>45</v>
       </c>
       <c r="K74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>44673</v>
       </c>
       <c r="M74">
         <v>34029</v>
@@ -3796,14 +3802,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3742</v>
       </c>
       <c r="M75">
         <v>34029</v>
@@ -3840,14 +3846,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>2355</v>
       </c>
       <c r="M76">
         <v>34029</v>
@@ -3884,14 +3890,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>44</v>
       </c>
       <c r="K77" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>14117</v>
       </c>
       <c r="M77">
         <v>34031</v>
@@ -3928,14 +3934,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>44</v>
       </c>
       <c r="K78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>29539</v>
       </c>
       <c r="M78">
         <v>34031</v>
@@ -3972,14 +3978,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>16663</v>
       </c>
       <c r="M79">
         <v>34031</v>
@@ -4016,14 +4022,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1883</v>
       </c>
       <c r="M80">
         <v>34031</v>
@@ -4060,14 +4066,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>45</v>
       </c>
       <c r="K81" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>1234</v>
       </c>
       <c r="M81">
         <v>34031</v>
@@ -4104,14 +4110,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>44</v>
       </c>
       <c r="K82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>2164</v>
       </c>
       <c r="M82">
         <v>34033</v>
@@ -4148,14 +4154,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>44</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2815</v>
       </c>
       <c r="M83">
         <v>34033</v>
@@ -4192,14 +4198,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>45</v>
       </c>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2995</v>
       </c>
       <c r="M84">
         <v>34033</v>
@@ -4236,14 +4242,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>45</v>
       </c>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="M85">
         <v>34033</v>
@@ -4280,14 +4286,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>45</v>
       </c>
       <c r="K86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>382</v>
       </c>
       <c r="M86">
         <v>34033</v>
@@ -4324,14 +4330,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>44</v>
       </c>
       <c r="K87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>12236</v>
       </c>
       <c r="M87">
         <v>34035</v>
@@ -4368,14 +4374,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>44</v>
       </c>
       <c r="K88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>19668</v>
       </c>
       <c r="M88">
         <v>34035</v>
@@ -4412,14 +4418,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>16862</v>
       </c>
       <c r="M89">
         <v>34035</v>
@@ -4456,14 +4462,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>45</v>
       </c>
       <c r="K90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4137</v>
       </c>
       <c r="M90">
         <v>34035</v>
@@ -4500,14 +4506,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>45</v>
       </c>
       <c r="K91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>1346</v>
       </c>
       <c r="M91">
         <v>34035</v>
@@ -4544,14 +4550,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>44</v>
       </c>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>5284</v>
       </c>
       <c r="M92">
         <v>34037</v>
@@ -4588,14 +4594,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>44</v>
       </c>
       <c r="K93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3983</v>
       </c>
       <c r="M93">
         <v>34037</v>
@@ -4632,14 +4638,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>45</v>
       </c>
       <c r="K94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>14025</v>
       </c>
       <c r="M94">
         <v>34037</v>
@@ -4676,14 +4682,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>45</v>
       </c>
       <c r="K95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>1990</v>
       </c>
       <c r="M95">
         <v>34037</v>
@@ -4720,14 +4726,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>1180</v>
       </c>
       <c r="M96">
         <v>34037</v>
@@ -4764,14 +4770,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>44</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>18492</v>
       </c>
       <c r="M97">
         <v>34039</v>
@@ -4808,14 +4814,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>44</v>
       </c>
       <c r="K98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>40973</v>
       </c>
       <c r="M98">
         <v>34039</v>
@@ -4852,14 +4858,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>45</v>
       </c>
       <c r="K99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>12388</v>
       </c>
       <c r="M99">
         <v>34039</v>
@@ -4896,14 +4902,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>45</v>
       </c>
       <c r="K100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>3110</v>
       </c>
       <c r="M100">
         <v>34039</v>
@@ -4940,14 +4946,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>45</v>
       </c>
       <c r="K101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>944</v>
       </c>
       <c r="M101">
         <v>34039</v>
@@ -4984,14 +4990,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>44</v>
       </c>
       <c r="K102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3522</v>
       </c>
       <c r="M102">
         <v>34041</v>
@@ -5028,14 +5034,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>44</v>
       </c>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3400</v>
       </c>
       <c r="M103">
         <v>34041</v>
@@ -5072,14 +5078,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>45</v>
       </c>
       <c r="K104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>10026</v>
       </c>
       <c r="M104">
         <v>34041</v>
@@ -5116,14 +5122,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>45</v>
       </c>
       <c r="K105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>1443</v>
       </c>
       <c r="M105">
         <v>34041</v>
@@ -5160,14 +5166,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>45</v>
       </c>
       <c r="K106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>768</v>
       </c>
       <c r="M106">
         <v>34041</v>
